--- a/宏观经济/eta/USDCNY即期汇率_月度数据.xlsx
+++ b/宏观经济/eta/USDCNY即期汇率_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>7.1298</v>
+        <v>7.1546</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.1242</v>
+        <v>7.1224</v>
       </c>
       <c r="C3" t="n">
-        <v>7.1346</v>
+        <v>7.1295</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>7.1247</v>
       </c>
       <c r="C4" t="n">
-        <v>7.1298</v>
+        <v>7.1287</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>7.1731</v>
       </c>
       <c r="C5" t="n">
-        <v>7.1722</v>
+        <v>7.1723</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>7.1727</v>
       </c>
       <c r="C6" t="n">
-        <v>7.1733</v>
+        <v>7.1732</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>7.182</v>
       </c>
       <c r="C7" t="n">
-        <v>7.182</v>
+        <v>7.1818</v>
       </c>
     </row>
     <row r="8">
@@ -562,7 +562,7 @@
         <v>7.2508</v>
       </c>
       <c r="C10" t="n">
-        <v>7.2526</v>
+        <v>7.2527</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>7.2768</v>
       </c>
       <c r="C11" t="n">
-        <v>7.2786</v>
+        <v>7.2787</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>7.2821</v>
       </c>
       <c r="C13" t="n">
-        <v>7.2821</v>
+        <v>7.2818</v>
       </c>
     </row>
     <row r="14">
@@ -640,7 +640,7 @@
         <v>7.0792</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0787</v>
+        <v>7.0784</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>7.1502</v>
       </c>
       <c r="C17" t="n">
-        <v>7.1506</v>
+        <v>7.1508</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>7.2628</v>
       </c>
       <c r="C18" t="n">
-        <v>7.2604</v>
+        <v>7.2601</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>7.2559</v>
       </c>
       <c r="C19" t="n">
-        <v>7.2558</v>
+        <v>7.2559</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>7.2326</v>
       </c>
       <c r="C20" t="n">
-        <v>7.2361</v>
+        <v>7.236</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>7.2388</v>
       </c>
       <c r="C21" t="n">
-        <v>7.2385</v>
+        <v>7.2386</v>
       </c>
     </row>
     <row r="22">
@@ -731,7 +731,7 @@
         <v>7.1936</v>
       </c>
       <c r="C23" t="n">
-        <v>7.1949</v>
+        <v>7.195</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>7.1683</v>
       </c>
       <c r="C24" t="n">
-        <v>7.1676</v>
+        <v>7.1675</v>
       </c>
     </row>
     <row r="25">
